--- a/Structure/2 - Renewables/Economy/EconomyTables.xlsx
+++ b/Structure/2 - Renewables/Economy/EconomyTables.xlsx
@@ -1,40 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\Github\SESH\Structure\2 - Renewables\Economy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\2 - Renewables\Economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CB85593-A7B6-4910-B1DA-4DE492D8E40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ED5976-3CA6-4EB0-A1E5-62DF53D68199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28875" yWindow="-450" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8DC04991-101B-4CB5-92BE-03305B936E8F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{8DC04991-101B-4CB5-92BE-03305B936E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
     <sheet name="Turnover" sheetId="2" r:id="rId2"/>
-    <sheet name="Exports" sheetId="3" r:id="rId3"/>
-    <sheet name="Number of Businesses" sheetId="4" r:id="rId4"/>
+    <sheet name="TurnoverUnrounded" sheetId="5" r:id="rId3"/>
+    <sheet name="Exports" sheetId="3" r:id="rId4"/>
+    <sheet name="Number of Businesses" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="29">
   <si>
     <t>Direct Activity</t>
   </si>
@@ -127,7 +122,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,14 +155,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,9 +485,9 @@
       <selection activeCell="G1" sqref="G1:U1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -497,7 +504,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -517,7 +524,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -537,7 +544,7 @@
         <v>0.10275800711743772</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -557,7 +564,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -577,7 +584,7 @@
         <v>15100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -597,7 +604,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -617,7 +624,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -637,7 +644,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -657,7 +664,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -677,7 +684,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -697,7 +704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -717,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -737,7 +744,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -757,7 +764,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -777,7 +784,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -797,7 +804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -817,7 +824,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -837,7 +844,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -857,7 +864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -877,7 +884,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -897,7 +904,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -917,7 +924,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -937,7 +944,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -957,7 +964,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -977,7 +984,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -997,7 +1004,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1017,7 +1024,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1046,13 +1053,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C7C2C9-85F9-48BC-95E8-7D1E193D12DA}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:P1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="23.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -1069,543 +1079,599 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>5853000</v>
-      </c>
-      <c r="C2">
-        <v>5595500</v>
-      </c>
-      <c r="D2">
-        <v>5948000</v>
-      </c>
-      <c r="E2">
-        <v>5989000</v>
-      </c>
-      <c r="F2">
-        <v>6413500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>5.85</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.13393745923866407</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.13859510068610209</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.14460584695800158</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.13414265395943692</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.13721064567198665</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>2753000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>2878000</v>
-      </c>
-      <c r="F6">
-        <v>3325000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>3100000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>3111000</v>
-      </c>
-      <c r="F7">
-        <v>3088500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>3025500</v>
-      </c>
-      <c r="C9">
-        <v>3454500</v>
-      </c>
-      <c r="D9">
-        <v>3570000</v>
-      </c>
-      <c r="E9">
-        <v>3454000</v>
-      </c>
-      <c r="F9">
-        <v>3627500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>95000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>308000</v>
-      </c>
-      <c r="E10">
-        <v>305500</v>
-      </c>
-      <c r="F10">
-        <v>261000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1657500</v>
-      </c>
-      <c r="C11">
-        <v>1665000</v>
-      </c>
-      <c r="D11">
-        <v>1572000</v>
-      </c>
-      <c r="E11">
-        <v>1431500</v>
-      </c>
-      <c r="F11">
-        <v>2081500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>51500</v>
-      </c>
-      <c r="C12">
-        <v>72000</v>
-      </c>
-      <c r="D12">
-        <v>107000</v>
-      </c>
-      <c r="E12">
-        <v>32500</v>
-      </c>
-      <c r="F12">
-        <v>67000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>379000</v>
-      </c>
-      <c r="C13">
-        <v>323500</v>
-      </c>
-      <c r="D13">
-        <v>320000</v>
-      </c>
-      <c r="E13">
-        <v>557500</v>
-      </c>
-      <c r="F13">
-        <v>357500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>29000</v>
-      </c>
-      <c r="C14">
-        <v>13000</v>
-      </c>
-      <c r="D14">
-        <v>3000</v>
-      </c>
-      <c r="E14">
-        <v>14000</v>
-      </c>
-      <c r="F14">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>10500</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15">
+      <c r="B15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>803000</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>1112500</v>
-      </c>
-      <c r="F16">
-        <v>846000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18">
-        <v>171500</v>
-      </c>
-      <c r="C18">
-        <v>169000</v>
-      </c>
-      <c r="D18">
-        <v>342500</v>
-      </c>
-      <c r="E18">
-        <v>244000</v>
-      </c>
-      <c r="F18">
-        <v>269500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19">
-        <v>143000</v>
-      </c>
-      <c r="C19">
-        <v>106500</v>
-      </c>
-      <c r="D19">
-        <v>224000</v>
-      </c>
-      <c r="E19">
-        <v>185000</v>
-      </c>
-      <c r="F19">
-        <v>210500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
-        <v>29000</v>
-      </c>
-      <c r="C20">
-        <v>62500</v>
-      </c>
-      <c r="D20">
-        <v>119000</v>
-      </c>
-      <c r="E20">
-        <v>59500</v>
-      </c>
-      <c r="F20">
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22">
-        <v>369500</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>293000</v>
-      </c>
-      <c r="F22">
-        <v>274000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>369500</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26">
-        <v>2143000</v>
-      </c>
-      <c r="C26">
-        <v>1390500</v>
-      </c>
-      <c r="D26">
-        <v>1602500</v>
-      </c>
-      <c r="E26">
-        <v>1861500</v>
-      </c>
-      <c r="F26">
-        <v>2099500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27">
-        <v>142000</v>
-      </c>
-      <c r="C27">
-        <v>83500</v>
-      </c>
-      <c r="D27">
-        <v>148000</v>
-      </c>
-      <c r="E27">
-        <v>143500</v>
-      </c>
-      <c r="F27">
-        <v>281000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28">
-        <v>1882500</v>
-      </c>
-      <c r="C28">
-        <v>1113000</v>
-      </c>
-      <c r="D28">
-        <v>1232000</v>
-      </c>
-      <c r="E28">
-        <v>1505000</v>
-      </c>
-      <c r="F28">
-        <v>1667500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29">
-        <v>118500</v>
-      </c>
-      <c r="C29">
-        <v>194000</v>
-      </c>
-      <c r="D29">
-        <v>222500</v>
-      </c>
-      <c r="E29">
-        <v>213000</v>
-      </c>
-      <c r="F29">
-        <v>151000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>174500</v>
-      </c>
-      <c r="D31">
-        <v>176500</v>
-      </c>
-      <c r="E31">
-        <v>59500</v>
-      </c>
-      <c r="F31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>174500</v>
-      </c>
-      <c r="D32">
-        <v>176500</v>
-      </c>
-      <c r="E32">
-        <v>59500</v>
-      </c>
-      <c r="F32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>77500</v>
-      </c>
-      <c r="F34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>62500</v>
-      </c>
-      <c r="E35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>63500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>2500</v>
-      </c>
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="B36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1615,6 +1681,656 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE7DC55-D021-4CFA-B17C-CE7D394C244A}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H19:H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1">
+        <v>2014</v>
+      </c>
+      <c r="C1">
+        <v>2015</v>
+      </c>
+      <c r="D1">
+        <v>2016</v>
+      </c>
+      <c r="E1">
+        <v>2017</v>
+      </c>
+      <c r="F1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.8529999999999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.5955000000000004</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.9480000000000004</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.9889999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.4135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.13393745923866407</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.13859510068610209</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.14460584695800158</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.13414265395943692</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.13721064567198665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.7530000000000001</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.8780000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.3250000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.1110000000000002</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.0884999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.0255000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.4544999999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.4540000000000002</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.6274999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.308</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.30549999999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.6575</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.665</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.4315</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.0815000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.379</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.5575</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.35749999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.1125</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.17150000000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.26950000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.1065</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.21049999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.3695</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.3695</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.3905000000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.6025</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.8614999999999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.0994999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.8825000000000001</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.113</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.232</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.6675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.11849999999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.2225</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.17449999999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.17449999999999999</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>6.3500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC4659-A542-4DDC-984B-50393A116E63}">
   <dimension ref="A1:F36"/>
   <sheetViews>
@@ -1622,9 +2338,9 @@
       <selection activeCell="G1" sqref="G1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -1641,7 +2357,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +2377,7 @@
         <v>377500</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1681,7 +2397,7 @@
         <v>7.0885362876725186E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1701,7 +2417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1721,7 +2437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1738,7 +2454,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1758,7 +2474,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1778,7 +2494,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1798,7 +2514,7 @@
         <v>21500</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1818,7 +2534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1838,7 +2554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1858,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1878,7 +2594,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1898,7 +2614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1918,7 +2634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1938,7 +2654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1958,7 +2674,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1978,7 +2694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1998,7 +2714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2018,7 +2734,7 @@
         <v>149500</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2038,7 +2754,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2058,7 +2774,7 @@
         <v>93000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -2078,7 +2794,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2098,7 +2814,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2118,7 +2834,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -2138,7 +2854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2158,7 +2874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2183,17 +2899,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D986A7-CF01-4D48-8EAC-6CDCA4225485}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -2210,7 +2926,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2230,7 +2946,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2250,7 +2966,7 @@
         <v>0.11299435028248588</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2270,7 +2986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2290,7 +3006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2310,7 +3026,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2330,7 +3046,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2350,7 +3066,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2370,7 +3086,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2390,7 +3106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2410,7 +3126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2430,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2450,7 +3166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2470,7 +3186,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2490,7 +3206,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2510,7 +3226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2530,7 +3246,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2550,7 +3266,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2570,7 +3286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2590,7 +3306,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2610,7 +3326,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2630,7 +3346,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -2650,7 +3366,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2670,7 +3386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2690,7 +3406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -2710,7 +3426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2730,7 +3446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>28</v>
       </c>

--- a/Structure/2 - Renewables/Economy/EconomyTables.xlsx
+++ b/Structure/2 - Renewables/Economy/EconomyTables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\2 - Renewables\Economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ED5976-3CA6-4EB0-A1E5-62DF53D68199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351B2457-7F59-4A70-B56F-1562BF2FC5C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{8DC04991-101B-4CB5-92BE-03305B936E8F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{8DC04991-101B-4CB5-92BE-03305B936E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C7C2C9-85F9-48BC-95E8-7D1E193D12DA}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1682,15 +1682,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE7DC55-D021-4CFA-B17C-CE7D394C244A}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H19:H20"/>
+      <selection activeCell="D37" activeCellId="22" sqref="B2:F2 B6:B7 E6:F7 B9:B16 C9 C11:C14 D9:D14 E9:E12 E13:E14 F9:F16 E16 B18:F20 F22 E22 B22 C23 B26:F29 C31:E32 E34 F35 D35 D36 D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -1707,27 +1707,30 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>5.8529999999999998</v>
+        <v>5853</v>
       </c>
       <c r="C2" s="1">
-        <v>5.5955000000000004</v>
+        <v>5595.5</v>
       </c>
       <c r="D2" s="1">
-        <v>5.9480000000000004</v>
+        <v>5948</v>
       </c>
       <c r="E2" s="1">
-        <v>5.9889999999999999</v>
+        <v>5989</v>
       </c>
       <c r="F2" s="1">
-        <v>6.4135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6413.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1747,26 +1750,26 @@
         <v>0.13721064567198665</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>2.7530000000000001</v>
+        <v>2753</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1775,18 +1778,18 @@
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>2.8780000000000001</v>
+        <v>2878</v>
       </c>
       <c r="F6" s="1">
-        <v>3.3250000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>3.1</v>
+        <v>3100</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -1795,145 +1798,145 @@
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>3.1110000000000002</v>
+        <v>3111</v>
       </c>
       <c r="F7" s="1">
-        <v>3.0884999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3088.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>3.0255000000000001</v>
+        <v>3025.5</v>
       </c>
       <c r="C9" s="1">
-        <v>3.4544999999999999</v>
+        <v>3454.5</v>
       </c>
       <c r="D9" s="1">
-        <v>3.57</v>
+        <v>3570</v>
       </c>
       <c r="E9" s="1">
-        <v>3.4540000000000002</v>
+        <v>3454</v>
       </c>
       <c r="F9" s="1">
-        <v>3.6274999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3627.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>0.308</v>
+        <v>308</v>
       </c>
       <c r="E10" s="1">
-        <v>0.30549999999999999</v>
+        <v>305.5</v>
       </c>
       <c r="F10" s="1">
-        <v>0.26100000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>1.6575</v>
+        <v>1657.5</v>
       </c>
       <c r="C11" s="1">
-        <v>1.665</v>
+        <v>1665</v>
       </c>
       <c r="D11" s="1">
-        <v>1.5720000000000001</v>
+        <v>1572</v>
       </c>
       <c r="E11" s="1">
-        <v>1.4315</v>
+        <v>1431.5</v>
       </c>
       <c r="F11" s="1">
-        <v>2.0815000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2081.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>5.1499999999999997E-2</v>
+        <v>51.5</v>
       </c>
       <c r="C12" s="1">
-        <v>7.1999999999999995E-2</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1">
-        <v>0.107</v>
+        <v>107</v>
       </c>
       <c r="E12" s="1">
-        <v>3.2500000000000001E-2</v>
+        <v>32.5</v>
       </c>
       <c r="F12" s="1">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>0.379</v>
+        <v>379</v>
       </c>
       <c r="C13" s="1">
-        <v>0.32350000000000001</v>
+        <v>323.5</v>
       </c>
       <c r="D13" s="1">
-        <v>0.32</v>
+        <v>320</v>
       </c>
       <c r="E13" s="1">
-        <v>0.5575</v>
+        <v>557.5</v>
       </c>
       <c r="F13" s="1">
-        <v>0.35749999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>357.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>1.4E-2</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1">
-        <v>1.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>1.0500000000000001E-2</v>
+        <v>10.5</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -1948,12 +1951,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>0.80300000000000005</v>
+        <v>803</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -1962,10 +1965,10 @@
         <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>1.1125</v>
+        <v>1112.5</v>
       </c>
       <c r="F16" s="1">
-        <v>0.84599999999999997</v>
+        <v>846</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1980,19 +1983,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>0.17150000000000001</v>
+        <v>171.5</v>
       </c>
       <c r="C18" s="1">
-        <v>0.16900000000000001</v>
+        <v>169</v>
       </c>
       <c r="D18" s="1">
-        <v>0.34250000000000003</v>
+        <v>342.5</v>
       </c>
       <c r="E18" s="1">
-        <v>0.24399999999999999</v>
+        <v>244</v>
       </c>
       <c r="F18" s="1">
-        <v>0.26950000000000002</v>
+        <v>269.5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -2000,19 +2003,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>0.14299999999999999</v>
+        <v>143</v>
       </c>
       <c r="C19" s="1">
-        <v>0.1065</v>
+        <v>106.5</v>
       </c>
       <c r="D19" s="1">
-        <v>0.224</v>
+        <v>224</v>
       </c>
       <c r="E19" s="1">
-        <v>0.185</v>
+        <v>185</v>
       </c>
       <c r="F19" s="1">
-        <v>0.21049999999999999</v>
+        <v>210.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -2020,19 +2023,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
-        <v>6.25E-2</v>
+        <v>62.5</v>
       </c>
       <c r="D20" s="1">
-        <v>0.11899999999999999</v>
+        <v>119</v>
       </c>
       <c r="E20" s="1">
-        <v>5.9499999999999997E-2</v>
+        <v>59.5</v>
       </c>
       <c r="F20" s="1">
-        <v>5.8999999999999997E-2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -2047,7 +2050,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="1">
-        <v>0.3695</v>
+        <v>369.5</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -2056,10 +2059,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>0.29299999999999998</v>
+        <v>293</v>
       </c>
       <c r="F22" s="1">
-        <v>0.27400000000000002</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -2070,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1">
-        <v>0.3695</v>
+        <v>369.5</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -2114,19 +2117,19 @@
         <v>20</v>
       </c>
       <c r="B26" s="1">
-        <v>2.1429999999999998</v>
+        <v>2143</v>
       </c>
       <c r="C26" s="1">
-        <v>1.3905000000000001</v>
+        <v>1390.5</v>
       </c>
       <c r="D26" s="1">
-        <v>1.6025</v>
+        <v>1602.5</v>
       </c>
       <c r="E26" s="1">
-        <v>1.8614999999999999</v>
+        <v>1861.5</v>
       </c>
       <c r="F26" s="1">
-        <v>2.0994999999999999</v>
+        <v>2099.5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -2134,19 +2137,19 @@
         <v>21</v>
       </c>
       <c r="B27" s="1">
-        <v>0.14199999999999999</v>
+        <v>142</v>
       </c>
       <c r="C27" s="1">
-        <v>8.3500000000000005E-2</v>
+        <v>83.5</v>
       </c>
       <c r="D27" s="1">
-        <v>0.14799999999999999</v>
+        <v>148</v>
       </c>
       <c r="E27" s="1">
-        <v>0.14349999999999999</v>
+        <v>143.5</v>
       </c>
       <c r="F27" s="1">
-        <v>0.28100000000000003</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -2154,19 +2157,19 @@
         <v>22</v>
       </c>
       <c r="B28" s="1">
-        <v>1.8825000000000001</v>
+        <v>1882.5</v>
       </c>
       <c r="C28" s="1">
-        <v>1.113</v>
+        <v>1113</v>
       </c>
       <c r="D28" s="1">
-        <v>1.232</v>
+        <v>1232</v>
       </c>
       <c r="E28" s="1">
-        <v>1.5049999999999999</v>
+        <v>1505</v>
       </c>
       <c r="F28" s="1">
-        <v>1.6675</v>
+        <v>1667.5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -2174,19 +2177,19 @@
         <v>23</v>
       </c>
       <c r="B29" s="1">
-        <v>0.11849999999999999</v>
+        <v>118.5</v>
       </c>
       <c r="C29" s="1">
-        <v>0.19400000000000001</v>
+        <v>194</v>
       </c>
       <c r="D29" s="1">
-        <v>0.2225</v>
+        <v>222.5</v>
       </c>
       <c r="E29" s="1">
-        <v>0.21299999999999999</v>
+        <v>213</v>
       </c>
       <c r="F29" s="1">
-        <v>0.151</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -2206,13 +2209,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>0.17449999999999999</v>
+        <v>174.5</v>
       </c>
       <c r="D31" s="1">
-        <v>0.17649999999999999</v>
+        <v>176.5</v>
       </c>
       <c r="E31" s="1">
-        <v>5.9499999999999997E-2</v>
+        <v>59.5</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>3</v>
@@ -2226,13 +2229,13 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>0.17449999999999999</v>
+        <v>174.5</v>
       </c>
       <c r="D32" s="1">
-        <v>0.17649999999999999</v>
+        <v>176.5</v>
       </c>
       <c r="E32" s="1">
-        <v>5.9499999999999997E-2</v>
+        <v>59.5</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>3</v>
@@ -2259,7 +2262,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="1">
-        <v>7.7499999999999999E-2</v>
+        <v>77.5</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>3</v>
@@ -2276,13 +2279,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="1">
-        <v>6.25E-2</v>
+        <v>62.5</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="1">
-        <v>6.3500000000000001E-2</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -2296,7 +2299,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>2.5</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>3</v>
@@ -2315,8 +2318,8 @@
       <c r="C37" t="s">
         <v>3</v>
       </c>
-      <c r="D37">
-        <v>2.5000000000000001E-3</v>
+      <c r="D37" s="1">
+        <v>2.5</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
@@ -2334,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC4659-A542-4DDC-984B-50393A116E63}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" activeCellId="21" sqref="B2:F2 B9:B11 C9 C11 D10:F11 E9:F9 F12 B13 B16 E16:F16 F22 E23 C22 C23 B22 B23 B26:B29 C28 C26 D26:F29 B31:F32 D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2361,20 +2364,20 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>295000</v>
-      </c>
-      <c r="C2">
-        <v>225500</v>
-      </c>
-      <c r="D2">
-        <v>279000</v>
-      </c>
-      <c r="E2">
-        <v>351500</v>
-      </c>
-      <c r="F2">
-        <v>377500</v>
+      <c r="B2" s="1">
+        <v>295</v>
+      </c>
+      <c r="C2" s="1">
+        <v>225.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>279</v>
+      </c>
+      <c r="E2" s="1">
+        <v>351.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>377.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2441,57 +2444,57 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>115000</v>
-      </c>
-      <c r="C9">
-        <v>36000</v>
-      </c>
-      <c r="E9">
-        <v>77500</v>
-      </c>
-      <c r="F9">
-        <v>79000</v>
+      <c r="B9" s="1">
+        <v>115</v>
+      </c>
+      <c r="C9" s="1">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
+        <v>77.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>15500</v>
+      <c r="B10" s="1">
+        <v>15.5</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>27500</v>
-      </c>
-      <c r="E10">
-        <v>58500</v>
-      </c>
-      <c r="F10">
-        <v>36000</v>
+      <c r="D10" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>77000</v>
-      </c>
-      <c r="C11">
-        <v>18500</v>
-      </c>
-      <c r="D11">
-        <v>18500</v>
-      </c>
-      <c r="E11">
-        <v>10000</v>
-      </c>
-      <c r="F11">
-        <v>19500</v>
+      <c r="B11" s="1">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>19.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -2510,16 +2513,16 @@
       <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>21500</v>
+      <c r="F12" s="1">
+        <v>21.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>7000</v>
+      <c r="B13" s="1">
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -2578,8 +2581,8 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>15000</v>
+      <c r="B16" s="1">
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -2587,11 +2590,11 @@
       <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>7000</v>
-      </c>
-      <c r="F16">
-        <v>2000</v>
+      <c r="E16" s="1">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -2658,11 +2661,11 @@
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22">
-        <v>2500</v>
-      </c>
-      <c r="C22">
-        <v>2000</v>
+      <c r="B22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -2670,25 +2673,25 @@
       <c r="E22" t="s">
         <v>3</v>
       </c>
-      <c r="F22">
-        <v>14500</v>
+      <c r="F22" s="1">
+        <v>14.5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B23">
-        <v>2500</v>
-      </c>
-      <c r="C23">
-        <v>2000</v>
+      <c r="B23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
-      <c r="E23">
-        <v>28000</v>
+      <c r="E23" s="1">
+        <v>28</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
@@ -2718,120 +2721,120 @@
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26">
-        <v>142500</v>
-      </c>
-      <c r="C26">
-        <v>142000</v>
-      </c>
-      <c r="D26">
-        <v>167000</v>
-      </c>
-      <c r="E26">
-        <v>164500</v>
-      </c>
-      <c r="F26">
-        <v>149500</v>
+      <c r="B26" s="1">
+        <v>142.5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>142</v>
+      </c>
+      <c r="D26" s="1">
+        <v>167</v>
+      </c>
+      <c r="E26" s="1">
+        <v>164.5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>149.5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27">
-        <v>34500</v>
+      <c r="B27" s="1">
+        <v>34.5</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
-      <c r="D27">
-        <v>22000</v>
-      </c>
-      <c r="E27">
-        <v>26500</v>
-      </c>
-      <c r="F27">
-        <v>20500</v>
+      <c r="D27" s="1">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>20.5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28">
-        <v>70500</v>
-      </c>
-      <c r="C28">
-        <v>83500</v>
-      </c>
-      <c r="D28">
-        <v>94500</v>
-      </c>
-      <c r="E28">
-        <v>99000</v>
-      </c>
-      <c r="F28">
-        <v>93000</v>
+      <c r="B28" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>99</v>
+      </c>
+      <c r="F28" s="1">
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29">
-        <v>37500</v>
+      <c r="B29" s="1">
+        <v>37.5</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
       </c>
-      <c r="D29">
-        <v>51000</v>
-      </c>
-      <c r="E29">
-        <v>39000</v>
-      </c>
-      <c r="F29">
-        <v>36000</v>
+      <c r="D29" s="1">
+        <v>51</v>
+      </c>
+      <c r="E29" s="1">
+        <v>39</v>
+      </c>
+      <c r="F29" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B31">
-        <v>2500</v>
-      </c>
-      <c r="C31">
-        <v>3000</v>
-      </c>
-      <c r="D31">
-        <v>1500</v>
-      </c>
-      <c r="E31">
-        <v>6500</v>
-      </c>
-      <c r="F31">
-        <v>11500</v>
+      <c r="B31" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>11.5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="B32">
-        <v>2500</v>
-      </c>
-      <c r="C32">
-        <v>3000</v>
-      </c>
-      <c r="D32">
-        <v>1500</v>
-      </c>
-      <c r="E32">
-        <v>6500</v>
-      </c>
-      <c r="F32">
-        <v>11500</v>
+      <c r="B32" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F32" s="1">
+        <v>11.5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -2844,8 +2847,8 @@
       <c r="C34" t="s">
         <v>3</v>
       </c>
-      <c r="D34">
-        <v>500</v>
+      <c r="D34" s="1">
+        <v>0.5</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>

--- a/Structure/2 - Renewables/Economy/EconomyTables.xlsx
+++ b/Structure/2 - Renewables/Economy/EconomyTables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\2 - Renewables\Economy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\2 - Renewables\Economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351B2457-7F59-4A70-B56F-1562BF2FC5C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B12D199-38D6-40E2-B7E2-3DAFB9913BE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{8DC04991-101B-4CB5-92BE-03305B936E8F}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="29">
   <si>
     <t>Direct Activity</t>
   </si>
@@ -132,7 +132,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -154,20 +153,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27B97BD-C3B7-4EBC-BBF4-D534DB48B2B7}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:U1048576"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -503,8 +512,11 @@
       <c r="F1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -512,19 +524,22 @@
         <v>23200</v>
       </c>
       <c r="C2">
-        <v>22900</v>
+        <v>22800</v>
       </c>
       <c r="D2">
         <v>24000</v>
       </c>
       <c r="E2">
-        <v>22100</v>
+        <v>21800</v>
       </c>
       <c r="F2">
-        <v>23100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>22500</v>
+      </c>
+      <c r="G2">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -532,19 +547,22 @@
         <v>9.8346757100466295E-2</v>
       </c>
       <c r="C3">
-        <v>0.11404382470119521</v>
+        <v>0.11371571072319202</v>
       </c>
       <c r="D3">
-        <v>0.11374407582938388</v>
+        <v>0.11417697431018078</v>
       </c>
       <c r="E3">
-        <v>0.10050022737608004</v>
+        <v>0.1003683241252302</v>
       </c>
       <c r="F3">
-        <v>0.10275800711743772</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.10426320667284522</v>
+      </c>
+      <c r="G3">
+        <v>0.10588817417120237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -564,7 +582,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -584,7 +602,7 @@
         <v>15100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -592,19 +610,22 @@
         <v>6800</v>
       </c>
       <c r="C9">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="D9">
         <v>8100</v>
       </c>
       <c r="E9">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="F9">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7400</v>
+      </c>
+      <c r="G9">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -612,19 +633,22 @@
         <v>700</v>
       </c>
       <c r="C10">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D10">
         <v>1200</v>
       </c>
       <c r="E10">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F10">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1600</v>
+      </c>
+      <c r="G10">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -638,13 +662,16 @@
         <v>3600</v>
       </c>
       <c r="E11">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F11">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2600</v>
+      </c>
+      <c r="G11">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -661,10 +688,13 @@
         <v>100</v>
       </c>
       <c r="F12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -683,8 +713,11 @@
       <c r="F13">
         <v>700</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -703,8 +736,11 @@
       <c r="F14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -723,8 +759,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -734,17 +773,20 @@
       <c r="C16">
         <v>2900</v>
       </c>
-      <c r="D16">
-        <v>2400</v>
+      <c r="D16" t="s">
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F16">
         <v>2000</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -758,13 +800,16 @@
         <v>1400</v>
       </c>
       <c r="E18">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F18">
         <v>1200</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -783,8 +828,11 @@
       <c r="F19">
         <v>1100</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -797,14 +845,17 @@
       <c r="D20" t="s">
         <v>7</v>
       </c>
-      <c r="E20">
-        <v>200</v>
+      <c r="E20" t="s">
+        <v>7</v>
       </c>
       <c r="F20">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -821,10 +872,13 @@
         <v>1100</v>
       </c>
       <c r="F22">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1200</v>
+      </c>
+      <c r="G22">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -843,8 +897,11 @@
       <c r="F23">
         <v>1100</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -863,8 +920,11 @@
       <c r="F24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -881,10 +941,13 @@
         <v>10000</v>
       </c>
       <c r="F26">
-        <v>11600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11400</v>
+      </c>
+      <c r="G26">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -898,13 +961,16 @@
         <v>3300</v>
       </c>
       <c r="E27">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F27">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2100</v>
+      </c>
+      <c r="G27">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -918,13 +984,16 @@
         <v>6200</v>
       </c>
       <c r="E28">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="F28">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8100</v>
+      </c>
+      <c r="G28">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -943,8 +1012,11 @@
       <c r="F29">
         <v>1200</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -963,8 +1035,11 @@
       <c r="F31">
         <v>800</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -983,8 +1058,11 @@
       <c r="F32">
         <v>800</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1003,8 +1081,11 @@
       <c r="F34">
         <v>600</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1023,8 +1104,11 @@
       <c r="F35">
         <v>400</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1042,6 +1126,9 @@
       </c>
       <c r="F36">
         <v>100</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1051,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C7C2C9-85F9-48BC-95E8-7D1E193D12DA}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="G25" sqref="B25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1062,7 +1149,7 @@
     <col min="3" max="3" width="23.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -1078,601 +1165,703 @@
       <c r="F1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>5.85</v>
       </c>
-      <c r="C2" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5.95</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5.99</v>
-      </c>
-      <c r="F2" s="2">
-        <v>6.41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C2" s="1">
+        <v>5.53</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.94</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.13393745923866407</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.13859510068610209</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.14460584695800158</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.13414265395943692</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.13721064567198665</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
+      <c r="C3" s="1">
+        <v>0.13731996172439076</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.14351622604137731</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.13462739797598899</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.13646388330858591</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.13373356673754949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2.75</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.88</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>3.1</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3.11</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.04</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>3.03</v>
       </c>
-      <c r="C9" s="2">
-        <v>3.45</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="D9" s="1">
         <v>3.57</v>
       </c>
-      <c r="E9" s="2">
-        <v>3.45</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.54</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.1</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1.66</v>
       </c>
-      <c r="C11" s="2">
-        <v>1.67</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
         <v>1.57</v>
       </c>
-      <c r="E11" s="2">
-        <v>1.43</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E11" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.05</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.11</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0.03</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.38</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.32</v>
       </c>
-      <c r="D13" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="E13" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0.03</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0.01</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.01</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.01</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>0.8</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>0.17</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>0.17</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.34</v>
       </c>
-      <c r="E18" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E18" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>0.11</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>0.22</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="1">
         <v>0.19</v>
       </c>
-      <c r="F19" s="2">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>0.03</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>0.06</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>0.12</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="F20" s="1">
         <v>0.06</v>
       </c>
-      <c r="F20" s="2">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>0.37</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F22" s="2">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>2.14</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>1.39</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>1.6</v>
       </c>
-      <c r="E26" s="2">
-        <v>1.86</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E26" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>0.08</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>0.15</v>
       </c>
-      <c r="E27" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E27" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>1.88</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>1.23</v>
       </c>
-      <c r="E28" s="2">
-        <v>1.51</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E28" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>0.12</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>0.19</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>0.22</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>0.21</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
         <v>0.17</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>0.18</v>
       </c>
-      <c r="E31" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
         <v>0.17</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>0.18</v>
       </c>
-      <c r="E32" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
         <v>0.08</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
         <v>0.06</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>3</v>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -1682,15 +1871,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE7DC55-D021-4CFA-B17C-CE7D394C244A}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" activeCellId="22" sqref="B2:F2 B6:B7 E6:F7 B9:B16 C9 C11:C14 D9:D14 E9:E12 E13:E14 F9:F16 E16 B18:F20 F22 E22 B22 C23 B26:F29 C31:E32 E34 F35 D35 D36 D37"/>
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="44.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -1706,8 +1898,11 @@
       <c r="F1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1715,22 +1910,25 @@
         <v>5853</v>
       </c>
       <c r="C2" s="1">
-        <v>5595.5</v>
+        <v>5525</v>
       </c>
       <c r="D2" s="1">
-        <v>5948</v>
+        <v>5941.5</v>
       </c>
       <c r="E2" s="1">
-        <v>5989</v>
+        <v>5926.5</v>
       </c>
       <c r="F2" s="1">
-        <v>6413.5</v>
-      </c>
-      <c r="H2" s="1">
+        <v>6249.5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5691.5</v>
+      </c>
+      <c r="J2" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1738,38 +1936,42 @@
         <v>0.13393745923866407</v>
       </c>
       <c r="C3" s="1">
-        <v>0.13859510068610209</v>
+        <v>0.13731996172439076</v>
       </c>
       <c r="D3" s="1">
-        <v>0.14460584695800158</v>
+        <v>0.14351622604137731</v>
       </c>
       <c r="E3" s="1">
-        <v>0.13414265395943692</v>
+        <v>0.13462739797598899</v>
       </c>
       <c r="F3" s="1">
-        <v>0.13721064567198665</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.13646388330858591</v>
+      </c>
+      <c r="G3">
+        <v>0.13373356673754949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>2753</v>
+        <f>B10+B11+B12+B14+B19+B20+B22+B13</f>
+        <v>2753.5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1777,19 +1979,25 @@
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
-        <v>2878</v>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>3325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="F6" si="0">F10+F11+F12+F14+F19+F20+F22+F13</f>
+        <v>3205.5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>3100</v>
+        <f>B2-B6</f>
+        <v>3099.5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -1797,21 +2005,32 @@
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
-        <v>3111</v>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F7" s="1">
-        <v>3088.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <f>F2-F6</f>
+        <v>3044</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1819,19 +2038,22 @@
         <v>3025.5</v>
       </c>
       <c r="C9" s="1">
-        <v>3454.5</v>
+        <v>3388.5</v>
       </c>
       <c r="D9" s="1">
-        <v>3570</v>
+        <v>3568.5</v>
       </c>
       <c r="E9" s="1">
-        <v>3454</v>
+        <v>3432.5</v>
       </c>
       <c r="F9" s="1">
-        <v>3627.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3540.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3207.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1841,37 +2063,43 @@
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
-        <v>308</v>
-      </c>
-      <c r="E10" s="1">
-        <v>305.5</v>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F10" s="1">
         <v>261</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G10" s="1">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>1657.5</v>
       </c>
-      <c r="C11" s="1">
-        <v>1665</v>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>1572</v>
+        <v>1571.5</v>
       </c>
       <c r="E11" s="1">
-        <v>1431.5</v>
+        <v>1414</v>
       </c>
       <c r="F11" s="1">
-        <v>2081.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2007</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1297.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1888,10 +2116,13 @@
         <v>32.5</v>
       </c>
       <c r="F12" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68.5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1899,19 +2130,22 @@
         <v>379</v>
       </c>
       <c r="C13" s="1">
-        <v>323.5</v>
+        <v>282</v>
       </c>
       <c r="D13" s="1">
         <v>320</v>
       </c>
       <c r="E13" s="1">
-        <v>557.5</v>
+        <v>552.5</v>
       </c>
       <c r="F13" s="1">
-        <v>357.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+      <c r="G13" s="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1930,8 +2164,11 @@
       <c r="F14" s="1">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1939,7 +2176,7 @@
         <v>10.5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -1950,8 +2187,11 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1964,21 +2204,25 @@
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1">
-        <v>1112.5</v>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F16" s="1">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>829</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1986,19 +2230,22 @@
         <v>171.5</v>
       </c>
       <c r="C18" s="1">
-        <v>169</v>
+        <v>168.5</v>
       </c>
       <c r="D18" s="1">
         <v>342.5</v>
       </c>
       <c r="E18" s="1">
-        <v>244</v>
+        <v>216.5</v>
       </c>
       <c r="F18" s="1">
-        <v>269.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+      <c r="G18" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2006,19 +2253,22 @@
         <v>143</v>
       </c>
       <c r="C19" s="1">
-        <v>106.5</v>
+        <v>106</v>
       </c>
       <c r="D19" s="1">
         <v>224</v>
       </c>
       <c r="E19" s="1">
+        <v>184.5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>198.5</v>
+      </c>
+      <c r="G19" s="1">
         <v>185</v>
       </c>
-      <c r="F19" s="1">
-        <v>210.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2029,23 +2279,27 @@
         <v>62.5</v>
       </c>
       <c r="D20" s="1">
-        <v>119</v>
+        <v>118.5</v>
       </c>
       <c r="E20" s="1">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1">
         <v>59.5</v>
       </c>
-      <c r="F20" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2059,21 +2313,24 @@
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>293</v>
+        <v>293.5</v>
       </c>
       <c r="F22" s="1">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>235.5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>340.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="1">
-        <v>369.5</v>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -2084,8 +2341,11 @@
       <c r="F23" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2104,15 +2364,19 @@
       <c r="F24" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" s="1">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2120,19 +2384,22 @@
         <v>2143</v>
       </c>
       <c r="C26" s="1">
-        <v>1390.5</v>
+        <v>1387</v>
       </c>
       <c r="D26" s="1">
-        <v>1602.5</v>
+        <v>1599.5</v>
       </c>
       <c r="E26" s="1">
-        <v>1861.5</v>
+        <v>1844</v>
       </c>
       <c r="F26" s="1">
-        <v>2099.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2069</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1772.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2140,19 +2407,22 @@
         <v>142</v>
       </c>
       <c r="C27" s="1">
-        <v>83.5</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1">
-        <v>148</v>
+        <v>147.5</v>
       </c>
       <c r="E27" s="1">
-        <v>143.5</v>
+        <v>129.5</v>
       </c>
       <c r="F27" s="1">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>261.5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2160,19 +2430,22 @@
         <v>1882.5</v>
       </c>
       <c r="C28" s="1">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D28" s="1">
-        <v>1232</v>
+        <v>1230.5</v>
       </c>
       <c r="E28" s="1">
-        <v>1505</v>
+        <v>1503.5</v>
       </c>
       <c r="F28" s="1">
-        <v>1667.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1653</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -2180,28 +2453,30 @@
         <v>118.5</v>
       </c>
       <c r="C29" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D29" s="1">
-        <v>222.5</v>
+        <v>221.5</v>
       </c>
       <c r="E29" s="1">
-        <v>213</v>
+        <v>211.5</v>
       </c>
       <c r="F29" s="1">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
+        <v>154.5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2212,16 +2487,19 @@
         <v>174.5</v>
       </c>
       <c r="D31" s="1">
-        <v>176.5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>59.5</v>
+        <v>176</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2232,23 +2510,27 @@
         <v>174.5</v>
       </c>
       <c r="D32" s="1">
-        <v>176.5</v>
-      </c>
-      <c r="E32" s="1">
-        <v>59.5</v>
+        <v>176</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -2261,14 +2543,17 @@
       <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="1">
-        <v>77.5</v>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2278,17 +2563,20 @@
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="1">
-        <v>62.5</v>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="1">
-        <v>63.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="G35" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2298,8 +2586,8 @@
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="1">
-        <v>2.5</v>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>3</v>
@@ -2307,25 +2595,8 @@
       <c r="F36" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" t="s">
-        <v>3</v>
+      <c r="G36" s="1">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2335,15 +2606,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC4659-A542-4DDC-984B-50393A116E63}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" activeCellId="21" sqref="B2:F2 B9:B11 C9 C11 D10:F11 E9:F9 F12 B13 B16 E16:F16 F22 E23 C22 C23 B22 B23 B26:B29 C28 C26 D26:F29 B31:F32 D34"/>
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -2359,8 +2634,11 @@
       <c r="F1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2374,97 +2652,140 @@
         <v>279</v>
       </c>
       <c r="E2" s="1">
-        <v>351.5</v>
+        <v>352</v>
       </c>
       <c r="F2" s="1">
-        <v>377.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+      <c r="G2" s="1">
+        <v>378.5</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>6.6002908602751986E-2</v>
       </c>
-      <c r="C3">
-        <v>6.1494409599127352E-2</v>
-      </c>
-      <c r="D3">
-        <v>7.5970047651463576E-2</v>
-      </c>
-      <c r="E3">
-        <v>6.8087167070217919E-2</v>
-      </c>
-      <c r="F3">
-        <v>7.0885362876725186E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C3" s="1">
+        <v>6.1519574410039558E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7.6669414674361086E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.9966209501093224E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6.9573550551030192E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.3741303421837285E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>115</v>
       </c>
-      <c r="C9" s="1">
-        <v>36</v>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>60</v>
       </c>
       <c r="E9" s="1">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>15.5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1">
@@ -2474,10 +2795,13 @@
         <v>58.5</v>
       </c>
       <c r="F10" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2487,107 +2811,122 @@
       <c r="C11" s="1">
         <v>18.5</v>
       </c>
-      <c r="D11" s="1">
-        <v>18.5</v>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
       <c r="F11" s="1">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>18.5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="1">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1">
@@ -2596,168 +2935,219 @@
       <c r="F16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="1">
         <v>2.5</v>
       </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="1">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="1">
         <v>2.5</v>
       </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>0</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="1">
-        <v>142.5</v>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C26" s="1">
         <v>142</v>
       </c>
-      <c r="D26" s="1">
-        <v>167</v>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>164.5</v>
+        <v>164</v>
       </c>
       <c r="F26" s="1">
-        <v>149.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="G26" s="1">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>34.5</v>
       </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1">
-        <v>22</v>
-      </c>
-      <c r="E27" s="1">
-        <v>26.5</v>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F27" s="1">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2770,21 +3160,24 @@
       <c r="D28" s="1">
         <v>94.5</v>
       </c>
-      <c r="E28" s="1">
-        <v>99</v>
+      <c r="E28" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F28" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>86.5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="1">
@@ -2796,8 +3189,19 @@
       <c r="F29" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2811,13 +3215,16 @@
         <v>1.5</v>
       </c>
       <c r="E31" s="1">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="F31" s="1">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2831,69 +3238,101 @@
         <v>1.5</v>
       </c>
       <c r="E32" s="1">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="F32" s="1">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="G32" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="1">
         <v>0.5</v>
       </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35">
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
         <v>0</v>
       </c>
-      <c r="F35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2904,15 +3343,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D986A7-CF01-4D48-8EAC-6CDCA4225485}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G35" sqref="G35:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -2928,28 +3370,34 @@
       <c r="F1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>11500</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>18000</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>9000</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>10500</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="3">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2963,13 +3411,16 @@
         <v>0.10650887573964497</v>
       </c>
       <c r="E3">
-        <v>0.12650602409638553</v>
+        <v>0.12574850299401197</v>
       </c>
       <c r="F3">
-        <v>0.11299435028248588</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.11235955056179775</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.20300751879699247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2989,7 +3440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3009,7 +3460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3028,8 +3479,11 @@
       <c r="F9">
         <v>5500</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3048,8 +3502,11 @@
       <c r="F10">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3068,8 +3525,11 @@
       <c r="F11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3088,8 +3548,11 @@
       <c r="F12">
         <v>2500</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3100,7 +3563,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>1000</v>
@@ -3108,8 +3571,11 @@
       <c r="F13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3120,7 +3586,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -3128,8 +3594,11 @@
       <c r="F14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3148,8 +3617,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3168,8 +3640,11 @@
       <c r="F16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -3188,8 +3663,11 @@
       <c r="F18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -3208,8 +3686,11 @@
       <c r="F19">
         <v>500</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -3228,28 +3709,34 @@
       <c r="F20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22">
-        <v>6500</v>
+        <v>1000</v>
       </c>
       <c r="C22">
-        <v>9000</v>
-      </c>
-      <c r="D22">
-        <v>8000</v>
+        <v>3500</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="F22">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1000</v>
+      </c>
+      <c r="G22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3260,7 +3747,7 @@
         <v>3500</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>1000</v>
@@ -3268,8 +3755,11 @@
       <c r="F23">
         <v>1000</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3280,7 +3770,7 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -3288,8 +3778,11 @@
       <c r="F24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3308,8 +3801,11 @@
       <c r="F26">
         <v>4000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -3328,8 +3824,11 @@
       <c r="F27">
         <v>1500</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -3348,8 +3847,11 @@
       <c r="F28">
         <v>2500</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3368,8 +3870,11 @@
       <c r="F29">
         <v>1000</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -3388,8 +3893,11 @@
       <c r="F31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -3408,8 +3916,11 @@
       <c r="F32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -3428,8 +3939,11 @@
       <c r="F34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -3448,8 +3962,11 @@
       <c r="F35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -3466,6 +3983,9 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Structure/2 - Renewables/Economy/EconomyTables.xlsx
+++ b/Structure/2 - Renewables/Economy/EconomyTables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\2 - Renewables\Economy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\2 - Renewables\Economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B12D199-38D6-40E2-B7E2-3DAFB9913BE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DFB937-8408-41BA-8AA8-9EA2058CA3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{8DC04991-101B-4CB5-92BE-03305B936E8F}"/>
+    <workbookView xWindow="2800" yWindow="2800" windowWidth="28800" windowHeight="15370" activeTab="4" xr2:uid="{8DC04991-101B-4CB5-92BE-03305B936E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="29">
   <si>
     <t>Direct Activity</t>
   </si>
@@ -491,7 +500,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,6 +590,9 @@
       <c r="F6">
         <v>8000</v>
       </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -600,6 +612,9 @@
       </c>
       <c r="F7">
         <v>15100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -2608,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC4659-A542-4DDC-984B-50393A116E63}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2720,8 +2735,8 @@
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -2743,8 +2758,8 @@
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -3345,8 +3360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D986A7-CF01-4D48-8EAC-6CDCA4225485}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3439,6 +3454,9 @@
       <c r="F6" t="s">
         <v>3</v>
       </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -3457,6 +3475,9 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
         <v>3</v>
       </c>
     </row>
